--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF7EBC-EC5A-407E-A4F9-0D7FB442D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270C54F-D726-407A-BAC8-9A9574A7D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7463336C-D126-4DAE-91A7-314CE8F9B9AD}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>supplier_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>supplier_kode</t>
   </si>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8372212-58EB-44C3-A55C-99A03F82666A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +436,7 @@
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,54 +452,45 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>81771839</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>81771839</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>85271936</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{75AA9D79-DBB9-41CD-87D8-9CB315996F41}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{B96D85B8-CD9F-4E04-90F4-61C10E22A700}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{75AA9D79-DBB9-41CD-87D8-9CB315996F41}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B96D85B8-CD9F-4E04-90F4-61C10E22A700}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
